--- a/tables/table3_comorbidities.xlsx
+++ b/tables/table3_comorbidities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Bike-Injuries/Manuscript/GitHub/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_6D2B9DC98F79A8D366075C52F37BD2723AC9DE3B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{982817EF-3A65-41AB-A0BD-7EB47479185D}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_EB4F7FCA8F79A8D366075C52F37BD2723ACC29A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{228439A4-91D2-41F4-BCF8-9A0329039A32}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-21495" yWindow="7140" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
+  <si>
+    <t>label</t>
+  </si>
   <si>
     <t>levels</t>
   </si>
@@ -37,22 +40,22 @@
     <t>Total N (%)</t>
   </si>
   <si>
-    <t>63489 (36.8)</t>
-  </si>
-  <si>
-    <t>109015 (63.2)</t>
-  </si>
-  <si>
-    <t>Alcoholism</t>
+    <t>60593 (38.9)</t>
+  </si>
+  <si>
+    <t>95173 (61.1)</t>
+  </si>
+  <si>
+    <t>CC_ALCOHOLISM</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>61325 (98.7)</t>
-  </si>
-  <si>
-    <t>97493 (93.0)</t>
+    <t>58519 (96.6)</t>
+  </si>
+  <si>
+    <t>84885 (89.2)</t>
   </si>
   <si>
     <t>&lt;0.001</t>
@@ -61,190 +64,268 @@
     <t>1</t>
   </si>
   <si>
-    <t>799 (1.3)</t>
-  </si>
-  <si>
-    <t>7295 (7.0)</t>
-  </si>
-  <si>
-    <t>Smoker</t>
-  </si>
-  <si>
-    <t>60448 (95.9)</t>
-  </si>
-  <si>
-    <t>85030 (78.7)</t>
-  </si>
-  <si>
-    <t>2576 (4.1)</t>
-  </si>
-  <si>
-    <t>22965 (21.3)</t>
-  </si>
-  <si>
-    <t>Substance Abuse Disorder</t>
-  </si>
-  <si>
-    <t>61115 (98.4)</t>
-  </si>
-  <si>
-    <t>93523 (89.2)</t>
-  </si>
-  <si>
-    <t>1010 (1.6)</t>
-  </si>
-  <si>
-    <t>11274 (10.8)</t>
-  </si>
-  <si>
-    <t>Mental/Personality Disorder</t>
-  </si>
-  <si>
-    <t>51392 (95.5)</t>
-  </si>
-  <si>
-    <t>84602 (92.3)</t>
-  </si>
-  <si>
-    <t>2448 (4.5)</t>
-  </si>
-  <si>
-    <t>7026 (7.7)</t>
-  </si>
-  <si>
-    <t>Congestive Heart Failure</t>
-  </si>
-  <si>
-    <t>62741 (99.6)</t>
-  </si>
-  <si>
-    <t>107097 (99.2)</t>
-  </si>
-  <si>
-    <t>270 (0.4)</t>
-  </si>
-  <si>
-    <t>836 (0.8)</t>
-  </si>
-  <si>
-    <t>End Stage Renal Disease</t>
-  </si>
-  <si>
-    <t>62905 (99.8)</t>
-  </si>
-  <si>
-    <t>107631 (99.7)</t>
-  </si>
-  <si>
-    <t>101 (0.2)</t>
-  </si>
-  <si>
-    <t>299 (0.3)</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
-    <t>60760 (96.4)</t>
-  </si>
-  <si>
-    <t>103065 (95.5)</t>
-  </si>
-  <si>
-    <t>2265 (3.6)</t>
-  </si>
-  <si>
-    <t>4877 (4.5)</t>
-  </si>
-  <si>
-    <t>Hypertension</t>
-  </si>
-  <si>
-    <t>52928 (83.9)</t>
-  </si>
-  <si>
-    <t>92786 (85.9)</t>
-  </si>
-  <si>
-    <t>10141 (16.1)</t>
-  </si>
-  <si>
-    <t>15193 (14.1)</t>
-  </si>
-  <si>
-    <t>COPD</t>
-  </si>
-  <si>
-    <t>61567 (99.1)</t>
-  </si>
-  <si>
-    <t>102155 (97.5)</t>
-  </si>
-  <si>
-    <t>564 (0.9)</t>
-  </si>
-  <si>
-    <t>2648 (2.5)</t>
-  </si>
-  <si>
-    <t>Bleeding Disorder</t>
-  </si>
-  <si>
-    <t>62690 (99.5)</t>
-  </si>
-  <si>
-    <t>107522 (99.6)</t>
-  </si>
-  <si>
-    <t>320 (0.5)</t>
-  </si>
-  <si>
-    <t>409 (0.4)</t>
-  </si>
-  <si>
-    <t>Anticoagulant Therapy</t>
-  </si>
-  <si>
-    <t>60419 (95.9)</t>
-  </si>
-  <si>
-    <t>105214 (97.5)</t>
-  </si>
-  <si>
-    <t>2605 (4.1)</t>
-  </si>
-  <si>
-    <t>2729 (2.5)</t>
-  </si>
-  <si>
-    <t>Cirrosis</t>
-  </si>
-  <si>
-    <t>62934 (99.9)</t>
-  </si>
-  <si>
-    <t>107125 (99.3)</t>
-  </si>
-  <si>
-    <t>85 (0.1)</t>
-  </si>
-  <si>
-    <t>794 (0.7)</t>
-  </si>
-  <si>
-    <t>Cerebrovascular Accident</t>
-  </si>
-  <si>
-    <t>62746 (99.6)</t>
-  </si>
-  <si>
-    <t>107321 (99.4)</t>
-  </si>
-  <si>
-    <t>256 (0.4)</t>
-  </si>
-  <si>
-    <t>610 (0.6)</t>
+    <t>735 (1.2)</t>
+  </si>
+  <si>
+    <t>6265 (6.6)</t>
+  </si>
+  <si>
+    <t>(Missing)</t>
+  </si>
+  <si>
+    <t>1339 (2.2)</t>
+  </si>
+  <si>
+    <t>4023 (4.2)</t>
+  </si>
+  <si>
+    <t>CC_SMOKING</t>
+  </si>
+  <si>
+    <t>57919 (95.6)</t>
+  </si>
+  <si>
+    <t>76865 (80.8)</t>
+  </si>
+  <si>
+    <t>2228 (3.7)</t>
+  </si>
+  <si>
+    <t>17424 (18.3)</t>
+  </si>
+  <si>
+    <t>446 (0.7)</t>
+  </si>
+  <si>
+    <t>884 (0.9)</t>
+  </si>
+  <si>
+    <t>CC_SUBSTANCEABUSE</t>
+  </si>
+  <si>
+    <t>84545 (88.8)</t>
+  </si>
+  <si>
+    <t>733 (1.2)</t>
+  </si>
+  <si>
+    <t>6609 (6.9)</t>
+  </si>
+  <si>
+    <t>1341 (2.2)</t>
+  </si>
+  <si>
+    <t>4019 (4.2)</t>
+  </si>
+  <si>
+    <t>CC_MENTALPERSONALITY</t>
+  </si>
+  <si>
+    <t>49196 (81.2)</t>
+  </si>
+  <si>
+    <t>74856 (78.7)</t>
+  </si>
+  <si>
+    <t>2248 (3.7)</t>
+  </si>
+  <si>
+    <t>5495 (5.8)</t>
+  </si>
+  <si>
+    <t>9149 (15.1)</t>
+  </si>
+  <si>
+    <t>14822 (15.6)</t>
+  </si>
+  <si>
+    <t>CC_CHF</t>
+  </si>
+  <si>
+    <t>59885 (98.8)</t>
+  </si>
+  <si>
+    <t>93571 (98.3)</t>
+  </si>
+  <si>
+    <t>250 (0.4)</t>
+  </si>
+  <si>
+    <t>684 (0.7)</t>
+  </si>
+  <si>
+    <t>458 (0.8)</t>
+  </si>
+  <si>
+    <t>918 (1.0)</t>
+  </si>
+  <si>
+    <t>CC_RENAL</t>
+  </si>
+  <si>
+    <t>60034 (99.1)</t>
+  </si>
+  <si>
+    <t>93986 (98.8)</t>
+  </si>
+  <si>
+    <t>96 (0.2)</t>
+  </si>
+  <si>
+    <t>267 (0.3)</t>
+  </si>
+  <si>
+    <t>463 (0.8)</t>
+  </si>
+  <si>
+    <t>920 (1.0)</t>
+  </si>
+  <si>
+    <t>CC_DIABETES</t>
+  </si>
+  <si>
+    <t>58000 (95.7)</t>
+  </si>
+  <si>
+    <t>90074 (94.6)</t>
+  </si>
+  <si>
+    <t>2150 (3.5)</t>
+  </si>
+  <si>
+    <t>4191 (4.4)</t>
+  </si>
+  <si>
+    <t>443 (0.7)</t>
+  </si>
+  <si>
+    <t>908 (1.0)</t>
+  </si>
+  <si>
+    <t>CC_HYPERTENSION</t>
+  </si>
+  <si>
+    <t>50551 (83.4)</t>
+  </si>
+  <si>
+    <t>81130 (85.2)</t>
+  </si>
+  <si>
+    <t>9638 (15.9)</t>
+  </si>
+  <si>
+    <t>13170 (13.8)</t>
+  </si>
+  <si>
+    <t>404 (0.7)</t>
+  </si>
+  <si>
+    <t>873 (0.9)</t>
+  </si>
+  <si>
+    <t>CC_COPD</t>
+  </si>
+  <si>
+    <t>58751 (97.0)</t>
+  </si>
+  <si>
+    <t>88980 (93.5)</t>
+  </si>
+  <si>
+    <t>508 (0.8)</t>
+  </si>
+  <si>
+    <t>2180 (2.3)</t>
+  </si>
+  <si>
+    <t>1334 (2.2)</t>
+  </si>
+  <si>
+    <t>4013 (4.2)</t>
+  </si>
+  <si>
+    <t>CC_BLEEDING</t>
+  </si>
+  <si>
+    <t>59829 (98.7)</t>
+  </si>
+  <si>
+    <t>93893 (98.7)</t>
+  </si>
+  <si>
+    <t>305 (0.5)</t>
+  </si>
+  <si>
+    <t>360 (0.4)</t>
+  </si>
+  <si>
+    <t>459 (0.8)</t>
+  </si>
+  <si>
+    <t>CC_ANTICOAGULANT</t>
+  </si>
+  <si>
+    <t>57662 (95.2)</t>
+  </si>
+  <si>
+    <t>91800 (96.5)</t>
+  </si>
+  <si>
+    <t>2486 (4.1)</t>
+  </si>
+  <si>
+    <t>2466 (2.6)</t>
+  </si>
+  <si>
+    <t>445 (0.7)</t>
+  </si>
+  <si>
+    <t>907 (1.0)</t>
+  </si>
+  <si>
+    <t>CC_CIRRHOSIS</t>
+  </si>
+  <si>
+    <t>60067 (99.1)</t>
+  </si>
+  <si>
+    <t>93611 (98.4)</t>
+  </si>
+  <si>
+    <t>77 (0.1)</t>
+  </si>
+  <si>
+    <t>633 (0.7)</t>
+  </si>
+  <si>
+    <t>449 (0.7)</t>
+  </si>
+  <si>
+    <t>929 (1.0)</t>
+  </si>
+  <si>
+    <t>CC_CVA</t>
+  </si>
+  <si>
+    <t>59884 (98.8)</t>
+  </si>
+  <si>
+    <t>93766 (98.5)</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>242 (0.4)</t>
+  </si>
+  <si>
+    <t>486 (0.5)</t>
+  </si>
+  <si>
+    <t>467 (0.8)</t>
+  </si>
+  <si>
+    <t>921 (1.0)</t>
   </si>
 </sst>
 </file>
@@ -597,148 +678,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -748,25 +826,22 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -774,229 +849,381 @@
       <c r="D12" t="s">
         <v>34</v>
       </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
         <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
         <v>63</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" t="s">
-        <v>74</v>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
